--- a/public/Publications.xlsx
+++ b/public/Publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MJ/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MJ/Development/dlj-clive-group-next/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482EF666-3F3F-D549-A9B9-6789FC182C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE117E8A-5C2C-2B44-BEA2-EB2EAF423728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="656">
   <si>
     <t>Title</t>
   </si>
@@ -58,9 +58,6 @@
     <t>A New Method for Conversion of Aldoximes into Nitriles: Use of Chlorothionoformates</t>
   </si>
   <si>
-    <t>D.L.J. J. Chem. Soc., Chem. Commun.</t>
-  </si>
-  <si>
     <t>1014-1015</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>658-659</t>
   </si>
   <si>
-    <t>Cyclofunctionalisation of ortho-Alkenyl Phenols: a New Method for Introducing the Benzeneseleno-group</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Chittattu, G.; Curtis, N.J.; Kiel, W.A.; Wong, C.K.</t>
   </si>
   <si>
@@ -367,9 +361,6 @@
     <t>828-830</t>
   </si>
   <si>
-    <t>Formation of Carbon-Carbon Bonds by Ring Closure of b-Phenylselenocrotonates</t>
-  </si>
-  <si>
     <t>307-309</t>
   </si>
   <si>
@@ -451,9 +442,6 @@
     <t>1205-1207</t>
   </si>
   <si>
-    <t>Synthetic Studies Related to Compactin: Use of Tri-O-acetyl-D-glucal for Preparation of Chiral Cyclohexenes</t>
-  </si>
-  <si>
     <t>Prasad, J.S.; Clive, D.L.J.; da Silva, G.V.J.</t>
   </si>
   <si>
@@ -499,9 +487,6 @@
     <t>1339-1342</t>
   </si>
   <si>
-    <t>Rules for Ring Fusion Geometry and the Preparation of trans- or cis-Fused Bicyclic Compounds by Radical Closure</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Cheshire, D.R.; Set, L.</t>
   </si>
   <si>
@@ -517,9 +502,6 @@
     <t>4943-4953</t>
   </si>
   <si>
-    <t>On Baldwin's Kinetic Barrier Against 5-(Enol-endo)-exo-trigonal Closures: a Comparison of Ionic and Analogous Radical Reactions, and a New Synthesis of Cyclopentanones</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Cheshire, D.R.</t>
   </si>
   <si>
@@ -616,9 +598,6 @@
     <t>Clive, D.L.J.; Keshava Murthy, K.S.; Zhang, C.; Hayward, W.D.; Daigneault, S.</t>
   </si>
   <si>
-    <t>Construction of trans-Ring-fused Compounds by Radical Cyclization</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Manning, H.W.; Boivin, T.L.B.</t>
   </si>
   <si>
@@ -790,9 +769,6 @@
     <t>1396-1406</t>
   </si>
   <si>
-    <t>Synthesis of α-amino Acids by Addition of Putative Azido Radicals to α-Methoxy Acrylonitriles Derived From Aldehydes and Ketones</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Etkin. N.</t>
   </si>
   <si>
@@ -868,9 +844,6 @@
     <t>69-77</t>
   </si>
   <si>
-    <t>Cyclopentannulation by an Iterative Process of Sequential Claisen Rearrangement and Enyne Radical Closure: Routes to Triquinane and Propellane Systems, and Use in the Synthesis of ±-Ceratopicanol</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Magnuson, S.M.; Manning, H.M.; Mayhew, D.L.</t>
   </si>
   <si>
@@ -1747,9 +1720,6 @@
     <t>7014-7017</t>
   </si>
   <si>
-    <t>Conversion of 1,4-Diketones into p-Disubstituted Benzenes</t>
-  </si>
-  <si>
     <t>Ziffle, V. E.; Cheng, P.; Clive, D.L.J.</t>
   </si>
   <si>
@@ -1987,10 +1957,37 @@
     <t>J. Chem.</t>
   </si>
   <si>
-    <t>&lt;i&gt;trans&lt;/i&gt; Ring-fused Bicyclic Structures by 6-exo-Trigonal Radical Closure: Use of the Triethylborane-Stannane-Air System for Intramolecular Radical Addition to Aldehydes</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1039/QR9682200435</t>
+  </si>
+  <si>
+    <t>Cyclofunctionalisation of &lt;i&gt;ortho&lt;/i&gt;-Alkenyl Phenols: a New Method for Introducing the Benzeneseleno-group</t>
+  </si>
+  <si>
+    <t>Formation of Carbon-Carbon Bonds by Ring Closure of β-Phenylselenocrotonates</t>
+  </si>
+  <si>
+    <t>Synthetic Studies Related to Compactin: Use of Tri-&lt;i&gt;O&lt;/i&gt;-acetyl-D-glucal for Preparation of Chiral Cyclohexenes</t>
+  </si>
+  <si>
+    <t>Rules for Ring Fusion Geometry and the Preparation of &lt;i&gt;trans&lt;/i&gt;- or &lt;i&gt;cis&lt;/i&gt;-Fused Bicyclic Compounds by Radical Closure</t>
+  </si>
+  <si>
+    <t>On Baldwin's Kinetic Barrier Against 5-(Enol-&lt;i&gt;endo&lt;/i&gt;)-&lt;i&gt;exo&lt;/i&gt;-trigonal Closures: a Comparison of Ionic and Analogous Radical Reactions, and a New Synthesis of Cyclopentanones</t>
+  </si>
+  <si>
+    <t>Construction of &lt;i&gt;trans&lt;/i&gt;-Ring-fused Compounds by Radical Cyclization</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;trans&lt;/i&gt; Ring-fused Bicyclic Structures by 6-&lt;i&gt;exo&lt;/i&gt;-Trigonal Radical Closure: Use of the Triethylborane-Stannane-Air System for Intramolecular Radical Addition to Aldehydes</t>
+  </si>
+  <si>
+    <t>Synthesis of α-Amino Acids by Addition of Putative Azido Radicals to α-Methoxy Acrylonitriles Derived From Aldehydes and Ketones</t>
+  </si>
+  <si>
+    <t>Cyclopentannulation by an Iterative Process of Sequential Claisen Rearrangement and Enyne Radical Closure: Routes to Triquinane and Propellane Systems, and Use in the Synthesis of (±)-Ceratopicanol</t>
+  </si>
+  <si>
+    <t>Conversion of 1,4-Diketones into &lt;i&gt;p&lt;/i&gt;-Disubstituted Benzenes</t>
   </si>
 </sst>
 </file>
@@ -2871,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2930,10 +2927,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2941,92 +2938,92 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>1970</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>1971</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>1971</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>1971</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>1972</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>1973</v>
@@ -3037,30 +3034,30 @@
     </row>
     <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>1973</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>1974</v>
@@ -3071,13 +3068,13 @@
     </row>
     <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1975</v>
@@ -3086,46 +3083,46 @@
         <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="D12" s="1">
         <v>1976</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1">
         <v>1977</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>1977</v>
@@ -3134,103 +3131,103 @@
         <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>1977</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1">
         <v>1977</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
         <v>1977</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1">
         <v>1978</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1">
         <v>1978</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1">
         <v>1978</v>
@@ -3239,32 +3236,32 @@
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1">
         <v>1978</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1">
         <v>1978</v>
@@ -3273,18 +3270,18 @@
         <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1">
         <v>1978</v>
@@ -3293,52 +3290,52 @@
         <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1">
         <v>1978</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1">
         <v>1979</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D26" s="1">
         <v>1979</v>
@@ -3347,18 +3344,18 @@
         <v>44</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1">
         <v>1979</v>
@@ -3367,29 +3364,29 @@
         <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D28" s="1">
         <v>1980</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" s="1">
         <v>1980</v>
@@ -3398,18 +3395,18 @@
         <v>36</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="1">
         <v>1980</v>
@@ -3418,18 +3415,18 @@
         <v>102</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1">
         <v>1980</v>
@@ -3438,18 +3435,18 @@
         <v>45</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="1">
         <v>1980</v>
@@ -3458,18 +3455,18 @@
         <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1">
         <v>1981</v>
@@ -3478,80 +3475,80 @@
         <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="D34" s="1">
         <v>1981</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
         <v>1981</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D36" s="1">
         <v>1981</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1">
         <v>1981</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" s="1">
         <v>1982</v>
@@ -3560,18 +3557,18 @@
         <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="1">
         <v>1982</v>
@@ -3580,18 +3577,18 @@
         <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" s="1">
         <v>1982</v>
@@ -3600,18 +3597,18 @@
         <v>47</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="1">
         <v>1982</v>
@@ -3620,52 +3617,52 @@
         <v>47</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="1">
         <v>1982</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>647</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="1">
         <v>1983</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1">
         <v>1983</v>
@@ -3674,18 +3671,18 @@
         <v>105</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D45" s="1">
         <v>1983</v>
@@ -3694,18 +3691,18 @@
         <v>24</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1">
         <v>1984</v>
@@ -3714,18 +3711,18 @@
         <v>49</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1">
         <v>1984</v>
@@ -3734,35 +3731,35 @@
         <v>49</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="1">
         <v>1984</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D49" s="1">
         <v>1984</v>
@@ -3771,69 +3768,69 @@
         <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="1">
         <v>1985</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1">
         <v>1985</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1">
         <v>1985</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>143</v>
+        <v>648</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D53" s="1">
         <v>1986</v>
@@ -3842,52 +3839,52 @@
         <v>51</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1">
         <v>1986</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1">
         <v>1986</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D56" s="1">
         <v>1987</v>
@@ -3896,18 +3893,18 @@
         <v>24</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D57" s="1">
         <v>1987</v>
@@ -3916,35 +3913,35 @@
         <v>52</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>649</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="1">
         <v>1987</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D59" s="1">
         <v>1987</v>
@@ -3953,35 +3950,35 @@
         <v>52</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>165</v>
+        <v>650</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" s="1">
         <v>1987</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D61" s="1">
         <v>1988</v>
@@ -3990,35 +3987,35 @@
         <v>110</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D62" s="1">
         <v>1988</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" s="1">
         <v>1989</v>
@@ -4027,35 +4024,35 @@
         <v>54</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="1">
         <v>1989</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D65" s="1">
         <v>1989</v>
@@ -4064,18 +4061,18 @@
         <v>28</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" s="1">
         <v>1990</v>
@@ -4084,18 +4081,18 @@
         <v>112</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D67" s="1">
         <v>1990</v>
@@ -4104,18 +4101,18 @@
         <v>55</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D68" s="1">
         <v>1990</v>
@@ -4124,69 +4121,69 @@
         <v>55</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D69" s="1">
         <v>1990</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="1">
         <v>1990</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>198</v>
+        <v>651</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="1">
         <v>1990</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D72" s="1">
         <v>1991</v>
@@ -4195,35 +4192,35 @@
         <v>31</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D73" s="1">
         <v>1991</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D74" s="1">
         <v>1991</v>
@@ -4232,18 +4229,18 @@
         <v>56</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D75" s="1">
         <v>1991</v>
@@ -4252,18 +4249,18 @@
         <v>56</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D76" s="1">
         <v>1991</v>
@@ -4272,35 +4269,35 @@
         <v>56</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D77" s="1">
         <v>1991</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D78" s="1">
         <v>1991</v>
@@ -4309,91 +4306,91 @@
         <v>56</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D79" s="1">
         <v>1991</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D80" s="1">
         <v>1991</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" s="1">
         <v>1991</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" s="1">
         <v>1992</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D84" s="1">
         <v>1993</v>
@@ -4402,35 +4399,35 @@
         <v>58</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D85" s="1">
         <v>1993</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D86" s="1">
         <v>1993</v>
@@ -4439,69 +4436,69 @@
         <v>49</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87" s="1">
         <v>1993</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="1">
         <v>1993</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="1">
         <v>1993</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D90" s="1">
         <v>1993</v>
@@ -4510,35 +4507,35 @@
         <v>58</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" s="1">
         <v>1994</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D92" s="1">
         <v>1994</v>
@@ -4547,18 +4544,18 @@
         <v>59</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>256</v>
+        <v>653</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D93" s="1">
         <v>1994</v>
@@ -4567,18 +4564,18 @@
         <v>35</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D94" s="1">
         <v>1994</v>
@@ -4587,18 +4584,18 @@
         <v>116</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D95" s="1">
         <v>1995</v>
@@ -4607,18 +4604,18 @@
         <v>489</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D96" s="1">
         <v>1995</v>
@@ -4627,18 +4624,18 @@
         <v>36</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D97" s="1">
         <v>1995</v>
@@ -4647,35 +4644,35 @@
         <v>60</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" s="1">
         <v>1995</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D99" s="1">
         <v>1995</v>
@@ -4684,23 +4681,23 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D101" s="1">
         <v>1995</v>
@@ -4709,18 +4706,18 @@
         <v>60</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D102" s="1">
         <v>1996</v>
@@ -4729,18 +4726,18 @@
         <v>281</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>282</v>
+        <v>654</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D103" s="1">
         <v>1996</v>
@@ -4749,18 +4746,18 @@
         <v>61</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D104" s="1">
         <v>1996</v>
@@ -4769,18 +4766,18 @@
         <v>52</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" s="1">
         <v>1996</v>
@@ -4789,52 +4786,52 @@
         <v>118</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D106" s="1">
         <v>1996</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D107" s="1">
         <v>1996</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D108" s="1">
         <v>1996</v>
@@ -4843,35 +4840,35 @@
         <v>61</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109" s="1">
         <v>1996</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D110" s="1">
         <v>1996</v>
@@ -4880,35 +4877,35 @@
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" s="1">
         <v>1997</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D112" s="1">
         <v>1997</v>
@@ -4917,18 +4914,18 @@
         <v>62</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D113" s="1">
         <v>1997</v>
@@ -4937,35 +4934,35 @@
         <v>62</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D114" s="1">
         <v>1997</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D115" s="1">
         <v>1998</v>
@@ -4974,18 +4971,18 @@
         <v>39</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D116" s="1">
         <v>1998</v>
@@ -4994,18 +4991,18 @@
         <v>39</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D117" s="1">
         <v>1998</v>
@@ -5014,18 +5011,18 @@
         <v>39</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" s="1">
         <v>1998</v>
@@ -5034,18 +5031,18 @@
         <v>120</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D119" s="1">
         <v>1999</v>
@@ -5054,18 +5051,18 @@
         <v>64</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D120" s="1">
         <v>1999</v>
@@ -5074,18 +5071,18 @@
         <v>55</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D121" s="1">
         <v>1999</v>
@@ -5094,18 +5091,18 @@
         <v>64</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D122" s="1">
         <v>1999</v>
@@ -5114,18 +5111,18 @@
         <v>64</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D123" s="1">
         <v>1999</v>
@@ -5134,18 +5131,18 @@
         <v>64</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D124" s="1">
         <v>1999</v>
@@ -5154,18 +5151,18 @@
         <v>64</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D125" s="1">
         <v>1999</v>
@@ -5174,18 +5171,18 @@
         <v>36</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D126" s="1">
         <v>1999</v>
@@ -5194,18 +5191,18 @@
         <v>40</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D127" s="1">
         <v>1999</v>
@@ -5214,35 +5211,35 @@
         <v>41</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D128" s="1">
         <v>1999</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D129" s="1">
         <v>1999</v>
@@ -5251,35 +5248,35 @@
         <v>40</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D130" s="1">
         <v>2000</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D131" s="1">
         <v>2000</v>
@@ -5288,18 +5285,18 @@
         <v>41</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D132" s="1">
         <v>2000</v>
@@ -5308,18 +5305,18 @@
         <v>30</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="D133" s="1">
         <v>2000</v>
@@ -5328,35 +5325,35 @@
         <v>65</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D134" s="1">
         <v>2000</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D135" s="1">
         <v>2000</v>
@@ -5365,35 +5362,35 @@
         <v>41</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D136" s="1">
         <v>2000</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D137" s="1">
         <v>2001</v>
@@ -5402,18 +5399,18 @@
         <v>66</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D138" s="1">
         <v>2001</v>
@@ -5422,18 +5419,18 @@
         <v>66</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D139" s="1">
         <v>2001</v>
@@ -5442,18 +5439,18 @@
         <v>66</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D140" s="1">
         <v>2001</v>
@@ -5462,35 +5459,35 @@
         <v>42</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D141" s="1">
         <v>2001</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D142" s="1">
         <v>2001</v>
@@ -5499,18 +5496,18 @@
         <v>57</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D143" s="1">
         <v>2001</v>
@@ -5519,18 +5516,18 @@
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D144" s="1">
         <v>2001</v>
@@ -5539,18 +5536,18 @@
         <v>66</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D145" s="1">
         <v>2001</v>
@@ -5559,18 +5556,18 @@
         <v>66</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D146" s="1">
         <v>2001</v>
@@ -5579,18 +5576,18 @@
         <v>42</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D147" s="1">
         <v>2002</v>
@@ -5599,18 +5596,18 @@
         <v>28</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D148" s="1">
         <v>2001</v>
@@ -5619,18 +5616,18 @@
         <v>67</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D149" s="1">
         <v>2002</v>
@@ -5639,52 +5636,52 @@
         <v>43</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D150" s="1">
         <v>2002</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D151" s="1">
         <v>2002</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D152" s="1">
         <v>2002</v>
@@ -5693,18 +5690,18 @@
         <v>58</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D153" s="1">
         <v>2003</v>
@@ -5713,35 +5710,35 @@
         <v>33</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D154" s="1">
         <v>2003</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="D155" s="1">
         <v>2003</v>
@@ -5750,18 +5747,18 @@
         <v>81</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="D156" s="1">
         <v>2003</v>
@@ -5770,35 +5767,35 @@
         <v>42</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D157" s="1">
         <v>2003</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D158" s="1">
         <v>2003</v>
@@ -5807,35 +5804,35 @@
         <v>68</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D159" s="1">
         <v>2003</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D160" s="1">
         <v>2003</v>
@@ -5844,18 +5841,18 @@
         <v>44</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D161" s="1">
         <v>2004</v>
@@ -5864,18 +5861,18 @@
         <v>69</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D162" s="1">
         <v>2004</v>
@@ -5884,35 +5881,35 @@
         <v>69</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D163" s="1">
         <v>2004</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D164" s="1">
         <v>2004</v>
@@ -5921,18 +5918,18 @@
         <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D165" s="1">
         <v>2004</v>
@@ -5941,18 +5938,18 @@
         <v>45</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D166" s="1">
         <v>2004</v>
@@ -5961,18 +5958,18 @@
         <v>60</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D167" s="1">
         <v>2004</v>
@@ -5981,35 +5978,35 @@
         <v>70</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D168" s="1">
         <v>2005</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D169" s="1">
         <v>2005</v>
@@ -6018,18 +6015,18 @@
         <v>7</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D170" s="1">
         <v>2005</v>
@@ -6038,18 +6035,18 @@
         <v>37</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D171" s="1">
         <v>2005</v>
@@ -6058,18 +6055,18 @@
         <v>46</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D172" s="1">
         <v>2005</v>
@@ -6078,18 +6075,18 @@
         <v>105</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D173" s="1">
         <v>2005</v>
@@ -6098,18 +6095,18 @@
         <v>46</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D174" s="1">
         <v>2005</v>
@@ -6118,18 +6115,18 @@
         <v>7</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D175" s="1">
         <v>2007</v>
@@ -6138,18 +6135,18 @@
         <v>129</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D176" s="1">
         <v>2007</v>
@@ -6158,18 +6155,18 @@
         <v>48</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D177" s="1">
         <v>2007</v>
@@ -6178,35 +6175,35 @@
         <v>46</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D178" s="1">
         <v>2007</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D179" s="1">
         <v>2007</v>
@@ -6215,18 +6212,18 @@
         <v>35</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D180" s="1">
         <v>2007</v>
@@ -6235,18 +6232,18 @@
         <v>72</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D181" s="1">
         <v>2007</v>
@@ -6255,18 +6252,18 @@
         <v>9</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D182" s="1">
         <v>2007</v>
@@ -6275,18 +6272,18 @@
         <v>9</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D183" s="1">
         <v>2007</v>
@@ -6295,18 +6292,18 @@
         <v>46</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D184" s="1">
         <v>2007</v>
@@ -6315,18 +6312,18 @@
         <v>9</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D185" s="1">
         <v>2008</v>
@@ -6335,18 +6332,18 @@
         <v>73</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D186" s="1">
         <v>2008</v>
@@ -6355,18 +6352,18 @@
         <v>73</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D187" s="1">
         <v>2008</v>
@@ -6375,18 +6372,18 @@
         <v>6</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D188" s="1">
         <v>2008</v>
@@ -6395,18 +6392,18 @@
         <v>6</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D189" s="1">
         <v>2008</v>
@@ -6415,18 +6412,18 @@
         <v>73</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D190" s="1">
         <v>2008</v>
@@ -6435,18 +6432,18 @@
         <v>73</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D191" s="1">
         <v>2008</v>
@@ -6455,18 +6452,18 @@
         <v>73</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D192" s="1">
         <v>2009</v>
@@ -6475,18 +6472,18 @@
         <v>74</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D193" s="1">
         <v>2009</v>
@@ -6495,18 +6492,18 @@
         <v>74</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D194" s="1">
         <v>2009</v>
@@ -6515,18 +6512,18 @@
         <v>131</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D195" s="1">
         <v>2009</v>
@@ -6535,18 +6532,18 @@
         <v>7</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D196" s="1">
         <v>2009</v>
@@ -6555,18 +6552,18 @@
         <v>74</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D197" s="1">
         <v>2010</v>
@@ -6575,18 +6572,18 @@
         <v>46</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D198" s="1">
         <v>2010</v>
@@ -6595,18 +6592,18 @@
         <v>66</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D199" s="1">
         <v>2010</v>
@@ -6615,18 +6612,18 @@
         <v>75</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D200" s="1">
         <v>2010</v>
@@ -6635,18 +6632,18 @@
         <v>75</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D201" s="1">
         <v>2010</v>
@@ -6655,18 +6652,18 @@
         <v>75</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D202" s="1">
         <v>2011</v>
@@ -6675,18 +6672,18 @@
         <v>13</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D203" s="1">
         <v>2012</v>
@@ -6695,18 +6692,18 @@
         <v>53</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D204" s="1">
         <v>2012</v>
@@ -6715,18 +6712,18 @@
         <v>77</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D205" s="1">
         <v>2012</v>
@@ -6735,18 +6732,18 @@
         <v>77</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="D206" s="1">
         <v>2013</v>
@@ -6760,18 +6757,18 @@
     </row>
     <row r="207" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D208" s="1">
         <v>2013</v>
@@ -6780,18 +6777,18 @@
         <v>49</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D209" s="1">
         <v>2013</v>
@@ -6800,18 +6797,18 @@
         <v>78</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D210" s="1">
         <v>2013</v>
@@ -6820,18 +6817,18 @@
         <v>11</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D211" s="1">
         <v>2013</v>
@@ -6840,18 +6837,18 @@
         <v>69</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D212" s="1">
         <v>2013</v>
@@ -6860,18 +6857,18 @@
         <v>78</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D213" s="1">
         <v>2015</v>
@@ -6880,18 +6877,18 @@
         <v>80</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D214" s="1">
         <v>2015</v>
@@ -6900,18 +6897,18 @@
         <v>80</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D215" s="1">
         <v>2015</v>
@@ -6920,18 +6917,18 @@
         <v>80</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D216" s="1">
         <v>2015</v>
@@ -6940,18 +6937,18 @@
         <v>56</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D217" s="1">
         <v>2016</v>
@@ -6960,18 +6957,18 @@
         <v>17</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D218" s="1">
         <v>2016</v>
@@ -6980,18 +6977,18 @@
         <v>81</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="D219" s="1">
         <v>2016</v>
@@ -7000,18 +6997,18 @@
         <v>52</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D220" s="1">
         <v>2016</v>
@@ -7020,18 +7017,18 @@
         <v>81</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D221" s="1">
         <v>2018</v>
@@ -7040,18 +7037,18 @@
         <v>74</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D222" s="1">
         <v>2019</v>
@@ -7060,18 +7057,18 @@
         <v>60</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D223" s="1">
         <v>2019</v>
@@ -7080,18 +7077,18 @@
         <v>84</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D224" s="1">
         <v>2021</v>
@@ -7100,18 +7097,18 @@
         <v>86</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D225" s="1">
         <v>2023</v>
@@ -7120,7 +7117,7 @@
         <v>133</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/public/Publications.xlsx
+++ b/public/Publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MJ/Development/dlj-clive-group-next/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE117E8A-5C2C-2B44-BEA2-EB2EAF423728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C1167-755F-5F43-AAE9-B965A3E0DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2868,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4684,7 +4684,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>643</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>298</v>
       </c>
@@ -5656,61 +5656,61 @@
         <v>419</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="D151" s="1">
-        <v>2002</v>
+        <v>2003</v>
+      </c>
+      <c r="E151" s="1">
+        <v>33</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D152" s="1">
         <v>2002</v>
       </c>
-      <c r="E152" s="1">
+      <c r="F152" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E153" s="1">
         <v>58</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D153" s="1">
-        <v>2003</v>
-      </c>
-      <c r="E153" s="1">
-        <v>33</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -5961,81 +5961,81 @@
         <v>462</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>70</v>
+        <v>465</v>
       </c>
       <c r="D167" s="1">
-        <v>2004</v>
-      </c>
-      <c r="E167" s="1">
-        <v>70</v>
+        <v>2005</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D168" s="1">
         <v>2005</v>
       </c>
+      <c r="E168" s="1">
+        <v>7</v>
+      </c>
       <c r="F168" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D169" s="1">
         <v>2005</v>
       </c>
       <c r="E169" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>472</v>
+        <v>70</v>
       </c>
       <c r="D170" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E170" s="1">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="51" x14ac:dyDescent="0.2">

--- a/public/Publications.xlsx
+++ b/public/Publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MJ/Development/dlj-clive-group-next/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C1167-755F-5F43-AAE9-B965A3E0DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61852A6E-AEDE-A347-B239-4EDCA1CA427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="661">
   <si>
     <t>Title</t>
   </si>
@@ -1759,9 +1759,6 @@
     <t>5125-5131</t>
   </si>
   <si>
-    <t>Reagent for Divalent Sulfur Protection: Preparation of 4-Methylbenzenesulfonothioic Acid, S-[[[(1,1-Dimethylethyl)dimethylsilyl]oxy]methyl] Ester</t>
-  </si>
-  <si>
     <t>Org. Synth.</t>
   </si>
   <si>
@@ -1988,6 +1985,25 @@
   </si>
   <si>
     <t>Conversion of 1,4-Diketones into &lt;i&gt;p&lt;/i&gt;-Disubstituted Benzenes</t>
+  </si>
+  <si>
+    <t>Reagent for Divalent Sulfur Protection: Preparation of 4-Methylbenzenesulfonothioic Acid, &lt;i&gt;S&lt;/i&gt;-[[[(1,1-Dimethylethyl)dimethylsilyl]oxy]methyl] Ester</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;90&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>10-24</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[See &lt;i&gt;J. Org. Chem.&lt;/i&gt; &lt;b&gt;1993&lt;/b&gt;, &lt;i&gt;58&lt;/i&gt;, 3472 for correction of typographical error.]
+</t>
+  </si>
+  <si>
+    <t>[See &lt;i&gt;J. Chem. Soc., Chem. Commun.&lt;/i&gt; &lt;b&gt;1993&lt;/b&gt;, 1240 for correction of typographical error.]</t>
   </si>
 </sst>
 </file>
@@ -2495,19 +2511,22 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2866,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2884,30 +2903,33 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H1" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2926,11 +2948,11 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G2" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2947,7 +2969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2964,7 +2986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -2981,7 +3003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2998,7 +3020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3015,7 +3037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3032,7 +3054,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -3049,7 +3071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -3086,18 +3108,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D12" s="1">
         <v>1976</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -3114,7 +3136,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -3134,7 +3156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3151,7 +3173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,7 +3192,7 @@
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>47</v>
@@ -3369,13 +3391,13 @@
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D28" s="1">
         <v>1980</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -3480,13 +3502,13 @@
     </row>
     <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D34" s="1">
         <v>1981</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -3639,7 +3661,7 @@
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>100</v>
@@ -3824,7 +3846,7 @@
     </row>
     <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>140</v>
@@ -3918,7 +3940,7 @@
     </row>
     <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>155</v>
@@ -3955,7 +3977,7 @@
     </row>
     <row r="60" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>160</v>
@@ -4044,7 +4066,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>174</v>
       </c>
@@ -4064,7 +4086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>178</v>
       </c>
@@ -4084,7 +4106,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>181</v>
       </c>
@@ -4104,7 +4126,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>184</v>
       </c>
@@ -4124,7 +4146,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>187</v>
       </c>
@@ -4141,7 +4163,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>190</v>
       </c>
@@ -4158,9 +4180,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>192</v>
@@ -4175,7 +4197,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>194</v>
       </c>
@@ -4195,7 +4217,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>198</v>
       </c>
@@ -4212,7 +4234,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>201</v>
       </c>
@@ -4232,7 +4254,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>203</v>
       </c>
@@ -4252,7 +4274,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>205</v>
       </c>
@@ -4272,7 +4294,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>207</v>
       </c>
@@ -4289,7 +4311,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>209</v>
       </c>
@@ -4308,8 +4330,11 @@
       <c r="F78" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="H78" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>212</v>
       </c>
@@ -4326,7 +4351,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>215</v>
       </c>
@@ -4343,7 +4368,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>218</v>
       </c>
@@ -4360,12 +4385,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>221</v>
       </c>
@@ -4382,7 +4407,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>224</v>
       </c>
@@ -4402,9 +4427,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>227</v>
@@ -4418,8 +4443,11 @@
       <c r="F85" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="H85" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>229</v>
       </c>
@@ -4439,7 +4467,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>232</v>
       </c>
@@ -4456,7 +4484,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>235</v>
       </c>
@@ -4473,7 +4501,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>238</v>
       </c>
@@ -4490,7 +4518,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>241</v>
       </c>
@@ -4510,7 +4538,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>244</v>
       </c>
@@ -4527,7 +4555,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>246</v>
       </c>
@@ -4547,9 +4575,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>249</v>
@@ -4567,7 +4595,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>221</v>
       </c>
@@ -4587,7 +4615,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>252</v>
       </c>
@@ -4607,7 +4635,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>256</v>
       </c>
@@ -4686,7 +4714,7 @@
     </row>
     <row r="100" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -4731,7 +4759,7 @@
     </row>
     <row r="103" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>274</v>
@@ -5738,7 +5766,7 @@
         <v>431</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D155" s="1">
         <v>2003</v>
@@ -6637,7 +6665,7 @@
     </row>
     <row r="201" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>566</v>
@@ -6737,35 +6765,35 @@
     </row>
     <row r="206" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>568</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D206" s="1">
         <v>2013</v>
       </c>
-      <c r="E206" s="1">
-        <v>90</v>
-      </c>
-      <c r="F206" s="3">
-        <v>45223</v>
+      <c r="E206" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>284</v>
@@ -6777,15 +6805,15 @@
         <v>49</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>585</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>70</v>
@@ -6797,15 +6825,15 @@
         <v>78</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>527</v>
@@ -6817,15 +6845,15 @@
         <v>11</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>59</v>
@@ -6837,15 +6865,15 @@
         <v>69</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>70</v>
@@ -6857,15 +6885,15 @@
         <v>78</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>70</v>
@@ -6877,15 +6905,15 @@
         <v>80</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>70</v>
@@ -6897,15 +6925,15 @@
         <v>80</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>70</v>
@@ -6917,15 +6945,15 @@
         <v>80</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>119</v>
@@ -6937,15 +6965,15 @@
         <v>56</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>527</v>
@@ -6957,15 +6985,15 @@
         <v>17</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>70</v>
@@ -6977,15 +7005,15 @@
         <v>81</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>284</v>
@@ -6997,15 +7025,15 @@
         <v>52</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>70</v>
@@ -7017,15 +7045,15 @@
         <v>81</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>59</v>
@@ -7037,15 +7065,15 @@
         <v>74</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>119</v>
@@ -7057,15 +7085,15 @@
         <v>60</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>627</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>70</v>
@@ -7077,15 +7105,15 @@
         <v>84</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>70</v>
@@ -7097,15 +7125,15 @@
         <v>86</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>59</v>
@@ -7117,7 +7145,7 @@
         <v>133</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/public/Publications.xlsx
+++ b/public/Publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MJ/Development/dlj-clive-group-next/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61852A6E-AEDE-A347-B239-4EDCA1CA427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1C64B8-C896-D743-9948-B38448A5B381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1945,9 +1945,6 @@
     <t>Total Synthesis of (+)-Mevinolin and (+)-Compactin, Clive, D.L.J.; Keshava Murthy, K.S.; Wee, A.G.H.; Siva Prasad, J.; da Silva, G.V.J.; Majewski, M.; Anderson, P.C. "Studies in Natural Products Chemistry", Atta-ur-Rahman, Ed.; Elsevier: Amsterdam, 1992; Vol. 11, 335-377</t>
   </si>
   <si>
-    <t>The Marine Alkaloid Halichlorine — Its Defenses and its Defeat. Clive, D.L.J. &lt;i&gt;In Strategies and Tactics in Organic Synthesis&lt;/i&gt;; Harmata, M., Ed.; Vol. 8, Academic Press: Burlington, 2012, pp. 25-54</t>
-  </si>
-  <si>
     <t>Total Synthesis of Crystalline (±)-Fredericamycin A, Clive, D.L.J.; Tao, Y.; Khodabocus, A.; Wu, Y.-J.; Angoh, A.G.; Bennett, S.M.; Boddy, C.N.; Bordeleau, L.; Cantin, M.; Cheshire, D.R.; Kellner, D.; Kleiner, G.; Middleton, D.S.; Nichols, C.J.; Richardson, S.R.; Set, L.; Vernon, P.G. "Studies in Natural Products Chemistry", Atta-ur-Rahman, Ed.; Elsevier: Amsterdam, 1995; Vol. 16, 27-74</t>
   </si>
   <si>
@@ -2004,6 +2001,9 @@
   </si>
   <si>
     <t>[See &lt;i&gt;J. Chem. Soc., Chem. Commun.&lt;/i&gt; &lt;b&gt;1993&lt;/b&gt;, 1240 for correction of typographical error.]</t>
+  </si>
+  <si>
+    <t>The Marine Alkaloid Halichlorine — Its Defenses and its Defeat, Clive, D.L.J. &lt;i&gt;In Strategies and Tactics in Organic Synthesis&lt;/i&gt;; Harmata, M., Ed.; Vol. 8, Academic Press: Burlington, 2012, pp. 25-54</t>
   </si>
 </sst>
 </file>
@@ -2887,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2926,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2949,7 +2949,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -3192,7 +3192,7 @@
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>47</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>100</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>140</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>155</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="60" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>160</v>
@@ -4182,7 +4182,7 @@
     </row>
     <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>192</v>
@@ -4331,7 +4331,7 @@
         <v>211</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4429,7 +4429,7 @@
     </row>
     <row r="85" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>227</v>
@@ -4444,7 +4444,7 @@
         <v>228</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -4577,7 +4577,7 @@
     </row>
     <row r="93" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>249</v>
@@ -4712,9 +4712,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
     </row>
     <row r="103" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>274</v>
@@ -4908,7 +4908,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>298</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>431</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D155" s="1">
         <v>2003</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="201" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>566</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="206" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>568</v>
@@ -6777,15 +6777,15 @@
         <v>2013</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F206" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="34" x14ac:dyDescent="0.2">

--- a/public/Publications.xlsx
+++ b/public/Publications.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MJ/Development/dlj-clive-group-next/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1C64B8-C896-D743-9948-B38448A5B381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C783FBE-1886-7D45-BFE8-27B14CDF18F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Publications" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="878">
   <si>
     <t>Title</t>
   </si>
@@ -616,12 +621,6 @@
     <t>211-213</t>
   </si>
   <si>
-    <t>Model Studies Related to the Synthesis of Fredericamycin A</t>
-  </si>
-  <si>
-    <t>Clive, D.L.J.; Khodabocus, A.; Vernon, P.G.; Angoh, A.G.; Bordeleau, L.; Middleton, D.S.; Lowe, C.; Kellner, D.</t>
-  </si>
-  <si>
     <t>1433-1444</t>
   </si>
   <si>
@@ -931,9 +930,6 @@
     <t>3751-3753</t>
   </si>
   <si>
-    <t>Synthesis of 2',3'-Didehydro-2',3'-dideoxynucleosides by Reaction of 5'-&lt;i&gt;O&lt;/i&gt;-Protected Nucleoside 2',3'-Dimesylates with Lithium Aryl Selenolates</t>
-  </si>
-  <si>
     <t>Radical Allylations with Trimethyl[2-[(tributylstannyl)methyl]-2-propenyl]silane or Trimethyl[2-[(triphenylstannyl)methyl]-2-propenyl]silane</t>
   </si>
   <si>
@@ -1141,9 +1137,6 @@
     <t>Conversion of Some Substituted Phenols to the Corresponding Masked Thiophenols, Synthesis of a Dinickel(II) Dithiolate Macrocyclic Complex and Isolation of some Metal- and Ligand-based Oxidation Products</t>
   </si>
   <si>
-    <t>Brooker, S.; Croucher, P.D.; Davidson, T.C.; Clive, D.L.J.; Magnuson, S.M.; Cramer, S.P.; Ralston, C.Y.</t>
-  </si>
-  <si>
     <t>J. Chem. Soc., Dalton Trans.</t>
   </si>
   <si>
@@ -1216,9 +1209,6 @@
     <t>Synthesis and in &lt;i&gt;vitro&lt;/i&gt; activity of a non-epimerizable analog of the angiotensin-converting enzyme inhibitor A58365A</t>
   </si>
   <si>
-    <t>Synthesis of (+)-Juruenolide C — Use of a Sequential 5-&lt;i&gt;Exo&lt;/i&gt;-Diagonal Radical Cyclization, 1,5-Intramolecular Hydrogen Transfer, and 5-&lt;i&gt;Endo&lt;/i&gt;-&lt;i&gt;Trigonal&lt;/i&gt; Cyclization</t>
-  </si>
-  <si>
     <t>Synthesis of Biaryls by Intramolecular Radical Transfer in Phosphinates</t>
   </si>
   <si>
@@ -1255,9 +1245,6 @@
     <t>21-50</t>
   </si>
   <si>
-    <t>A Tin Hydride Designed to Facilitate Removal of Tin Species from Products of Stannane-mediated Radical Reactions</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Wang, J.</t>
   </si>
   <si>
@@ -1273,9 +1260,6 @@
     <t>4559-4563</t>
   </si>
   <si>
-    <t>Synthesis of the Bicyclic Core of the Antitumor Agent Ottelione B</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Fletcher, S.P.</t>
   </si>
   <si>
@@ -1435,9 +1419,6 @@
     <t>Oxidation of &lt;i&gt;p&lt;/i&gt;-Aminophenols and Formal Radical Cyclization onto Benzene Rings: Formation of Benzo-Fused Nitrogen Heterocycles</t>
   </si>
   <si>
-    <t>Synthetic Chemistry of the Hamigerans</t>
-  </si>
-  <si>
     <t>J. Org. Prep. Proc. Int.</t>
   </si>
   <si>
@@ -1462,9 +1443,6 @@
     <t>2853-2855</t>
   </si>
   <si>
-    <t>Synthetic Chemistry of Halichlorine and the Pinnaic Acid</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Yu, M.; Wang, J.; Yeh, V.S.C.; Kang, S.</t>
   </si>
   <si>
@@ -1510,9 +1488,6 @@
     <t>3141-3143</t>
   </si>
   <si>
-    <t>Synthesis of Otteliones A and B:  Use of a Cyclopropyl Group as Both a Steric Shield and Vinyl Equivalent</t>
-  </si>
-  <si>
     <t>Angew. Chem. Int. Ed.</t>
   </si>
   <si>
@@ -1540,9 +1515,6 @@
     <t>D521-D526</t>
   </si>
   <si>
-    <t>Intramolecular Conjugate Displacement:  A General Route to Hexahydroquinolizines, Hexahydroindolizines, and Related [m,n,0]-Bicyclic Structures with Nitrogen at a Bridgehead</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Li, Z.; Yu, M.</t>
   </si>
   <si>
@@ -1618,18 +1590,12 @@
     <t>2434-2441</t>
   </si>
   <si>
-    <t>[1-(Phenylseleno)alkyl]stannanes — mixed Selenium/Tin Analogs of Acetals:  Preparation from α-Hydroxystannanes and Use for Generating Selenium-Stabilized Carbanions</t>
-  </si>
-  <si>
     <t>Fernandopulle, S. C.; Clive, D.L.J.; Yu, M.</t>
   </si>
   <si>
     <t>6018-6021</t>
   </si>
   <si>
-    <t>The Naturally-occurring Ketene Acetal Benesudon — Total Synthesis and Assignment of Relative and Absolute Stereochemistry</t>
-  </si>
-  <si>
     <t>Clive, D.L.J.; Minaruzzaman, Yang, H.</t>
   </si>
   <si>
@@ -1660,18 +1626,12 @@
     <t>1685-1690</t>
   </si>
   <si>
-    <t>Generation of Carbocycles by Intramolecular Conjugate Displacement:  Scope and Mechanistic Insights</t>
-  </si>
-  <si>
     <t>Wang, L.; Prabhudas, B.; Clive, D.L.J.</t>
   </si>
   <si>
     <t>6003-6012</t>
   </si>
   <si>
-    <t>The Coumarin to Indole Transformation — a Method for Preparing 4-Halo-5-hydroxyindoles from Coumarins</t>
-  </si>
-  <si>
     <t>Stoffman, E.J.L.; Clive, D.L.J.</t>
   </si>
   <si>
@@ -1702,9 +1662,6 @@
     <t>4452-4461</t>
   </si>
   <si>
-    <t>2,6-Disubstituted and 2,2,6-Trisubstituted Piperidines from Serine:  Asymmetric Synthesis and further Elaboration</t>
-  </si>
-  <si>
     <t>Acharya, H.P.; Clive, D.L.J.</t>
   </si>
   <si>
@@ -1798,9 +1755,6 @@
     <t>5067-5078</t>
   </si>
   <si>
-    <t>A General Synthesis of 1,3'-Bipyrroles</t>
-  </si>
-  <si>
     <t>Cheng, P.; Shao, W.; Clive, D.L.J.</t>
   </si>
   <si>
@@ -1823,9 +1777,6 @@
   </si>
   <si>
     <t>10294-10298</t>
-  </si>
-  <si>
-    <t>A Family of Routes to Substituted Phenols, including &lt;i&gt;meta&lt;/i&gt;-Substituted Phenols</t>
   </si>
   <si>
     <t>Shao, W.; Clive, D.L.J.</t>
@@ -2003,7 +1954,714 @@
     <t>[See &lt;i&gt;J. Chem. Soc., Chem. Commun.&lt;/i&gt; &lt;b&gt;1993&lt;/b&gt;, 1240 for correction of typographical error.]</t>
   </si>
   <si>
-    <t>The Marine Alkaloid Halichlorine — Its Defenses and its Defeat, Clive, D.L.J. &lt;i&gt;In Strategies and Tactics in Organic Synthesis&lt;/i&gt;; Harmata, M., Ed.; Vol. 8, Academic Press: Burlington, 2012, pp. 25-54</t>
+    <t>https://doi.org/10.1039/C29700001014</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C29710001112</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/J39710002193</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/J39710002204</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39720000773</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39730000695</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39740000100</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja00855a053</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39770000484</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39770000657</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39770000658</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39770000725</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39780000041</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39780000379</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C3978000356A</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C3973000253A</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1139/v77-551</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39780000441</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0040-4020(78)80135-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39780000770</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39790000168</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo01338a013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0040-4020(80)85054-X</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja00533a024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo01299a019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo01300a016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00315a001</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39810000434</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/P19810000529</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39810000643</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00345a045</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00348a005</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00348a006</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00134a013</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39820000828</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39830000307</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja00359a012</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(00)81659-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00181a046</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00183a016</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39840000534</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(01)81171-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39850000941</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39850000980</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39850001205</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00364a018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39860000588</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39860000878</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jhet.5570240240</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00383a032</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39870000353</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00231a021</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39870001520</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja00228a067</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1351/pac198860111645</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00269a046</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39890000332</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3987/com-88-s141</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja00164a024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00290a053</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00293a022</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/P19900002099</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39900000509</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39900000972</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ijch.199100024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/P19910001433</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00012a009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00016a033</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00018a015</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/P19910002797</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00022a042</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/P19910003263</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0040-4039(91)80464-H</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39910001755</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39920001489</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00061a017</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39930000429</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4020(01)88016-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39930000647</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39930000666</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39930000923</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00076a057</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39940000235</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00085a032</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(00)77143-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja00104a009</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0022-328X(94)05224-Y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0040-4039(94)02158-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00110a051</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C39950000319</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00113a045</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo00122a037</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0008-6215(95)00329-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo951930h</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0040-4020(96)00245-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja9602004</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/CC9960001463</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/CC9960001605</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo9610570</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/CC9960002543</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/A605837J</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/A608236J</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo962079p</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo9705529</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/A706075K</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(98)00384-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(98)00792-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(98)00958-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja980292s</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo981435w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4020(98)01140-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo9822941</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo982205k</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo982225m</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo990086i</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jhet.5570360313</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(99)00743-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4020(99)00712-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/A906579B</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(99)01815-8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/A908842C</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(99)02298-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00397910008086966</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo0003551</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B001204L</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(00)01065-0</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B004214P</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo001523s</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo0013655</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo001124x</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(01)00144-7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B100336B</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4020(01)00226-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S1387-1609(01)01263-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo010206y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo010371d</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(01)01286-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo010885c</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4039(02)00741-4</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B205753K</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1081/SCC-120020210</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B205487F</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0040-4020(02)01357-1</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B212223E</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1139/v03-086</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/anie.200351519</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B306117E</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo030192r</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B307937F</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tetlet.2003.08.089</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo030284g</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo030347v</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo030364k</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo040115b</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tetlet.2004.02.078</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tet.2004.03.042</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B413481H</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ol047977j</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00304940509355400</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo0402935</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tetlet.2005.02.133</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/cr0406209</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tetlet.2005.06.021</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ol052131g</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja067117t</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/anie.200700517</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tetlet.2007.03.053</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B704211F</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/nar/gkl923</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo070664s</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ol070849l</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ol071147z</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/anie.200703022</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ol702509a</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo7026307</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo702635t</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B803308K</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B801858H</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo8004292</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo801028y</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo8015192</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo802344t</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo802629w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja900857h</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B914580J</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo901481n</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/B920884D</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tet.2010.04.081</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo101010c</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo101539m</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo101489g</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ol2002573</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/B978-0-12-386540-3.00002-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tetlet.2012.01.055</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.15227/orgsyn.090.0010</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo3007144</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo3001657</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C2CC37110C</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo302467w</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C3OB40115D</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tet.2013.04.036</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/jo401892t</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.joc.5b00192</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.joc.5b01890</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.joc.5b02187</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tetlet.2015.10.079</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C5OB02402A</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.joc.6b00691</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1039/C6CC04169H</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.joc.6b01653</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tetlet.2019.06.050</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.joc.9b02042</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.joc.0c02284</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tet.2023.133264</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S1572-5995(06)80052-9</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.tet.2018.06.059</t>
+  </si>
+  <si>
+    <t>A Family of Routes to Substituted Phenols, Including &lt;i&gt;meta&lt;/i&gt;-Substituted Phenols</t>
+  </si>
+  <si>
+    <t>A General Route of 1,3'-Bipyrroles</t>
+  </si>
+  <si>
+    <t>The Marine Alkaloid Halichlorine: Its Defenses and its Defeat, Clive, D.L.J. &lt;i&gt;In Strategies and Tactics in Organic Synthesis&lt;/i&gt;; Harmata, M., Ed.; Vol. 8, Academic Press: Burlington, 2012, pp. 25-54</t>
+  </si>
+  <si>
+    <t>2,6-Disubstituted and 2,2,6-Trisubstituted Piperidines from Serine:  Asymmetric Synthesis and Further Elaboration</t>
+  </si>
+  <si>
+    <t>The Coumarin→Indole Transformation — a Method for Preparing 4-Halo-5-hydroxyindoles from Coumarins</t>
+  </si>
+  <si>
+    <t>Formation of Carbocycles by Intramolecular Conjugate Displacement:  Scope and Mechanistic Insights</t>
+  </si>
+  <si>
+    <t>The Naturally Occurring Ketene Acetal Benesudon — Total Synthesis and Assignment of Relative and Absolute Stereochemistry</t>
+  </si>
+  <si>
+    <t>[1-(Phenylseleno)alkyl]stannanes — Mixed Selenium/Tin Analogs of Acetals:  Preparation from α-Hydroxystannanes and Use for Generating Selenium-Stabilized Carbanions</t>
+  </si>
+  <si>
+    <t>Intramolecular Conjugate Displacement:  A General Route to Hexahydroquinolizines, Hexahydroindolizines, and Related [m.n.0]-Bicyclic Structures with Nitrogen at a Bridgehead</t>
+  </si>
+  <si>
+    <t>Synthesis of the Otteliones A and B:  Use of a Cyclopropyl Group as Both a Steric Shield and Vinyl Equivalent</t>
+  </si>
+  <si>
+    <t>Synthetic Chemistry of Halichlorine and the Pinnaic Acids</t>
+  </si>
+  <si>
+    <t>Synthetic Chemistry of the Hamigerans. A Review</t>
+  </si>
+  <si>
+    <t>Synthesis of the Bicyclic Dienone Core of the Antitumor Agent Ottelione B</t>
+  </si>
+  <si>
+    <t>A Tin Hydride Designed to Facilitate Removal of Tin Species from Products of Stannane-Mediated Radical Reactions</t>
+  </si>
+  <si>
+    <t>Synthesis of (+)-Juruenolide C: Use of a Sequential 5-&lt;i&gt;Exo&lt;/i&gt;-Diagonal Radical Cyclization, 1,5-Intramolecular Hydrogen Transfer, and 5-&lt;i&gt;Endo&lt;/i&gt;-&lt;i&gt;Trigonal&lt;/i&gt; Cyclization</t>
+  </si>
+  <si>
+    <t>Brooker, S.; Caygill, G.B. ; Croucher, P.D.; Davidson, T.C.; Clive, D.L.J.; Magnuson, S.M.; Cramer, S.P.; Ralston, C.Y.</t>
+  </si>
+  <si>
+    <t>Synthesis of 2',3'-Didehydro-2',3'-dideoxynucleosides by Reaction of 5'-&lt;i&gt;O&lt;/i&gt;-Protected Nucleoside 2',3'-Dimesylates with Lithium Arylselenolates</t>
+  </si>
+  <si>
+    <t>[See &lt;i&gt;J. Chem. Soc., Perkin Trans. 1&lt;/i&gt; &lt;b&gt;1992&lt;/b&gt;, 739 for
+correction of typographical error.]</t>
+  </si>
+  <si>
+    <t>Model Studies Related to the Synthesis of Fredericamycin A.</t>
+  </si>
+  <si>
+    <t>Clive, D.L.J.; Khodabocus, A.;
+Vernon, P.G.; Angoh, A.G.; Bordeleau, L.; Middleton, D.S.; Lowe, C.; Kellner, D.</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +3169,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2529,6 +3187,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2631,7 +3296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2683,7 +3348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2887,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2926,7 +3591,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2949,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -2968,6 +3633,9 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2985,6 +3653,9 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -3002,6 +3673,9 @@
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -3019,6 +3693,9 @@
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G6" s="7" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -3036,6 +3713,9 @@
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G7" s="7" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -3053,8 +3733,11 @@
       <c r="F8" s="1">
         <v>253</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="G8" s="7" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -3069,6 +3752,9 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -3087,8 +3773,11 @@
       <c r="F10" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="G10" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -3107,19 +3796,22 @@
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="G11" s="7" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="D12" s="1">
         <v>1976</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -3134,6 +3826,9 @@
       </c>
       <c r="F13" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3155,8 +3850,11 @@
       <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="G14" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3171,6 +3869,9 @@
       </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -3189,10 +3890,13 @@
       <c r="F16" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G16" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>47</v>
@@ -3206,8 +3910,11 @@
       <c r="F17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G17" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -3223,8 +3930,11 @@
       <c r="F18" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G18" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -3240,8 +3950,11 @@
       <c r="F19" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G19" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -3257,8 +3970,11 @@
       <c r="F20" s="1">
         <v>356</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G20" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -3274,8 +3990,11 @@
       <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G21" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3294,8 +4013,11 @@
       <c r="F22" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="G22" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -3315,7 +4037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
@@ -3331,8 +4053,11 @@
       <c r="F24" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G24" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -3348,8 +4073,11 @@
       <c r="F25" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G25" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -3368,8 +4096,11 @@
       <c r="F26" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G26" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
@@ -3388,19 +4119,22 @@
       <c r="F27" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="G27" s="7" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="D28" s="1">
         <v>1980</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -3419,8 +4153,11 @@
       <c r="F29" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G29" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
@@ -3439,8 +4176,11 @@
       <c r="F30" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G30" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>81</v>
       </c>
@@ -3459,8 +4199,11 @@
       <c r="F31" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G31" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
@@ -3479,8 +4222,11 @@
       <c r="F32" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G32" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
@@ -3499,19 +4245,22 @@
       <c r="F33" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="G33" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="D34" s="1">
         <v>1981</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -3527,8 +4276,11 @@
       <c r="F35" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G35" s="7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>92</v>
       </c>
@@ -3544,8 +4296,11 @@
       <c r="F36" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G36" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -3561,8 +4316,11 @@
       <c r="F37" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G37" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -3581,8 +4339,11 @@
       <c r="F38" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G38" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -3601,8 +4362,11 @@
       <c r="F39" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G39" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
@@ -3621,8 +4385,11 @@
       <c r="F40" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G40" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -3641,8 +4408,11 @@
       <c r="F41" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G41" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>110</v>
       </c>
@@ -3658,10 +4428,13 @@
       <c r="F42" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G42" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>100</v>
@@ -3675,8 +4448,11 @@
       <c r="F43" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G43" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>114</v>
       </c>
@@ -3695,8 +4471,11 @@
       <c r="F44" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G44" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
@@ -3715,8 +4494,11 @@
       <c r="F45" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G45" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -3735,8 +4517,11 @@
       <c r="F46" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G46" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>124</v>
       </c>
@@ -3755,8 +4540,11 @@
       <c r="F47" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G47" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
@@ -3772,8 +4560,11 @@
       <c r="F48" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G48" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>130</v>
       </c>
@@ -3792,8 +4583,11 @@
       <c r="F49" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G49" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>133</v>
       </c>
@@ -3809,8 +4603,11 @@
       <c r="F50" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G50" s="7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>135</v>
       </c>
@@ -3826,8 +4623,11 @@
       <c r="F51" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G51" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>137</v>
       </c>
@@ -3843,10 +4643,13 @@
       <c r="F52" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G52" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>140</v>
@@ -3863,8 +4666,11 @@
       <c r="F53" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G53" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>142</v>
       </c>
@@ -3880,8 +4686,11 @@
       <c r="F54" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G54" s="7" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>145</v>
       </c>
@@ -3897,8 +4706,11 @@
       <c r="F55" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G55" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>148</v>
       </c>
@@ -3917,8 +4729,11 @@
       <c r="F56" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G56" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>152</v>
       </c>
@@ -3937,10 +4752,13 @@
       <c r="F57" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="G57" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>155</v>
@@ -3954,8 +4772,11 @@
       <c r="F58" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G58" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>157</v>
       </c>
@@ -3974,10 +4795,13 @@
       <c r="F59" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="G59" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>160</v>
@@ -3991,8 +4815,11 @@
       <c r="F60" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="G60" s="7" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>162</v>
       </c>
@@ -4011,8 +4838,11 @@
       <c r="F61" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G61" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>165</v>
       </c>
@@ -4028,8 +4858,11 @@
       <c r="F62" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G62" s="7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>168</v>
       </c>
@@ -4048,8 +4881,11 @@
       <c r="F63" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="G63" s="7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>171</v>
       </c>
@@ -4064,6 +4900,9 @@
       </c>
       <c r="F64" s="1" t="s">
         <v>173</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -4085,6 +4924,9 @@
       <c r="F65" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="G65" s="7" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -4105,6 +4947,9 @@
       <c r="F66" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="G66" s="7" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -4125,6 +4970,9 @@
       <c r="F67" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="G67" s="7" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -4145,6 +4993,9 @@
       <c r="F68" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="G68" s="7" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -4162,6 +5013,9 @@
       <c r="F69" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="G69" s="7" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
@@ -4179,10 +5033,13 @@
       <c r="F70" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="G70" s="7" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>192</v>
@@ -4195,6 +5052,9 @@
       </c>
       <c r="F71" s="1" t="s">
         <v>193</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -4216,13 +5076,16 @@
       <c r="F72" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="G72" s="7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>198</v>
+        <v>876</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>199</v>
+        <v>877</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>94</v>
@@ -4231,12 +5094,18 @@
         <v>1991</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>172</v>
@@ -4251,12 +5120,15 @@
         <v>56</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>185</v>
@@ -4271,12 +5143,15 @@
         <v>56</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>172</v>
@@ -4291,12 +5166,15 @@
         <v>56</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>182</v>
@@ -4308,15 +5186,18 @@
         <v>1991</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>70</v>
@@ -4328,18 +5209,21 @@
         <v>56</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>712</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>94</v>
@@ -4348,15 +5232,18 @@
         <v>1991</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>119</v>
@@ -4365,15 +5252,18 @@
         <v>1991</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>15</v>
@@ -4382,20 +5272,23 @@
         <v>1991</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>15</v>
@@ -4404,15 +5297,18 @@
         <v>1992</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>70</v>
@@ -4424,15 +5320,18 @@
         <v>58</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>15</v>
@@ -4441,18 +5340,21 @@
         <v>1993</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>718</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>59</v>
@@ -4464,15 +5366,18 @@
         <v>49</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
@@ -4481,15 +5386,18 @@
         <v>1993</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>15</v>
@@ -4498,15 +5406,18 @@
         <v>1993</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>15</v>
@@ -4515,15 +5426,18 @@
         <v>1993</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>70</v>
@@ -4535,15 +5449,18 @@
         <v>58</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>15</v>
@@ -4552,15 +5469,18 @@
         <v>1994</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>70</v>
@@ -4572,15 +5492,18 @@
         <v>59</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>119</v>
@@ -4592,15 +5515,18 @@
         <v>35</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>32</v>
@@ -4612,18 +5538,21 @@
         <v>116</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D95" s="1">
         <v>1995</v>
@@ -4632,15 +5561,18 @@
         <v>489</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>119</v>
@@ -4652,15 +5584,18 @@
         <v>36</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>70</v>
@@ -4672,15 +5607,18 @@
         <v>60</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>15</v>
@@ -4689,15 +5627,18 @@
         <v>1995</v>
       </c>
       <c r="F98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>70</v>
@@ -4709,20 +5650,26 @@
         <v>60</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="153" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>70</v>
@@ -4734,18 +5681,21 @@
         <v>60</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D102" s="1">
         <v>1996</v>
@@ -4754,15 +5704,18 @@
         <v>281</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>70</v>
@@ -4774,15 +5727,18 @@
         <v>61</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>59</v>
@@ -4794,15 +5750,18 @@
         <v>52</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>32</v>
@@ -4814,49 +5773,58 @@
         <v>118</v>
       </c>
       <c r="F105" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D106" s="1">
         <v>1996</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D107" s="1">
         <v>1996</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>70</v>
@@ -4868,15 +5836,18 @@
         <v>61</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>15</v>
@@ -4885,18 +5856,21 @@
         <v>1996</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D110" s="1">
         <v>1996</v>
@@ -4905,15 +5879,18 @@
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>15</v>
@@ -4922,15 +5899,18 @@
         <v>1997</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>303</v>
+        <v>874</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>70</v>
@@ -4942,15 +5922,18 @@
         <v>62</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>70</v>
@@ -4962,32 +5945,38 @@
         <v>62</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D114" s="1">
         <v>1997</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>119</v>
@@ -4999,15 +5988,18 @@
         <v>39</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>119</v>
@@ -5019,15 +6011,18 @@
         <v>39</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>119</v>
@@ -5039,15 +6034,18 @@
         <v>39</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>32</v>
@@ -5059,15 +6057,18 @@
         <v>120</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>70</v>
@@ -5079,15 +6080,18 @@
         <v>64</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>59</v>
@@ -5099,15 +6103,18 @@
         <v>55</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>70</v>
@@ -5119,15 +6126,18 @@
         <v>64</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>70</v>
@@ -5139,15 +6149,18 @@
         <v>64</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>70</v>
@@ -5159,15 +6172,18 @@
         <v>64</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="B124" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>70</v>
@@ -5179,15 +6195,18 @@
         <v>64</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>338</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>150</v>
@@ -5199,15 +6218,18 @@
         <v>36</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>119</v>
@@ -5219,15 +6241,18 @@
         <v>40</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>59</v>
@@ -5239,32 +6264,38 @@
         <v>41</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D128" s="1">
         <v>1999</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>119</v>
@@ -5276,32 +6307,38 @@
         <v>40</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D130" s="1">
         <v>2000</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>119</v>
@@ -5313,18 +6350,21 @@
         <v>41</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D132" s="1">
         <v>2000</v>
@@ -5333,18 +6373,21 @@
         <v>30</v>
       </c>
       <c r="F132" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D133" s="1">
         <v>2000</v>
@@ -5353,32 +6396,38 @@
         <v>65</v>
       </c>
       <c r="F133" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="B134" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D134" s="1">
         <v>2000</v>
       </c>
       <c r="F134" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>119</v>
@@ -5390,32 +6439,38 @@
         <v>41</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>373</v>
+        <v>873</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D136" s="1">
         <v>2000</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>70</v>
@@ -5427,15 +6482,18 @@
         <v>66</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>70</v>
@@ -5447,15 +6505,18 @@
         <v>66</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>70</v>
@@ -5467,15 +6528,18 @@
         <v>66</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>119</v>
@@ -5487,32 +6551,38 @@
         <v>42</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D141" s="1">
         <v>2001</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>59</v>
@@ -5524,18 +6594,21 @@
         <v>57</v>
       </c>
       <c r="F142" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="B143" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D143" s="1">
         <v>2001</v>
@@ -5544,15 +6617,18 @@
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>398</v>
+        <v>872</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>70</v>
@@ -5564,15 +6640,18 @@
         <v>66</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>70</v>
@@ -5584,15 +6663,18 @@
         <v>66</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>119</v>
@@ -5604,18 +6686,21 @@
         <v>42</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D147" s="1">
         <v>2002</v>
@@ -5624,15 +6709,15 @@
         <v>28</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>411</v>
+        <v>871</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>70</v>
@@ -5644,15 +6729,18 @@
         <v>67</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>119</v>
@@ -5664,15 +6752,18 @@
         <v>43</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>417</v>
+        <v>870</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>15</v>
@@ -5681,18 +6772,21 @@
         <v>2002</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D151" s="1">
         <v>2003</v>
@@ -5701,15 +6795,18 @@
         <v>33</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>15</v>
@@ -5718,15 +6815,18 @@
         <v>2002</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>59</v>
@@ -5738,15 +6838,18 @@
         <v>58</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>15</v>
@@ -5755,18 +6858,21 @@
         <v>2003</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="D155" s="1">
         <v>2003</v>
@@ -5775,18 +6881,21 @@
         <v>81</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D156" s="1">
         <v>2003</v>
@@ -5795,15 +6904,18 @@
         <v>42</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>15</v>
@@ -5812,15 +6924,18 @@
         <v>2003</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>70</v>
@@ -5832,15 +6947,18 @@
         <v>68</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>15</v>
@@ -5849,15 +6967,18 @@
         <v>2003</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>119</v>
@@ -5869,15 +6990,18 @@
         <v>44</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>70</v>
@@ -5889,15 +7013,18 @@
         <v>69</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>70</v>
@@ -5909,15 +7036,18 @@
         <v>69</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>70</v>
@@ -5926,15 +7056,18 @@
         <v>2004</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>70</v>
@@ -5946,15 +7079,18 @@
         <v>69</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>119</v>
@@ -5966,15 +7102,18 @@
         <v>45</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>59</v>
@@ -5986,35 +7125,41 @@
         <v>60</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="D167" s="1">
         <v>2005</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D168" s="1">
         <v>2005</v>
@@ -6023,18 +7168,21 @@
         <v>7</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>471</v>
+        <v>869</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D169" s="1">
         <v>2005</v>
@@ -6043,15 +7191,18 @@
         <v>37</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>70</v>
@@ -6063,15 +7214,18 @@
         <v>70</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>119</v>
@@ -6083,18 +7237,21 @@
         <v>46</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>480</v>
+        <v>868</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D172" s="1">
         <v>2005</v>
@@ -6103,15 +7260,18 @@
         <v>105</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>119</v>
@@ -6123,18 +7283,21 @@
         <v>46</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D174" s="1">
         <v>2005</v>
@@ -6143,15 +7306,18 @@
         <v>7</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>32</v>
@@ -6163,15 +7329,18 @@
         <v>129</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>119</v>
@@ -6183,18 +7352,21 @@
         <v>48</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>496</v>
+        <v>867</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D177" s="1">
         <v>2007</v>
@@ -6203,35 +7375,41 @@
         <v>46</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D178" s="1">
         <v>2007</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="255" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D179" s="1">
         <v>2007</v>
@@ -6240,15 +7418,18 @@
         <v>35</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>506</v>
+        <v>866</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>70</v>
@@ -6260,18 +7441,21 @@
         <v>72</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D181" s="1">
         <v>2007</v>
@@ -6280,18 +7464,21 @@
         <v>9</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D182" s="1">
         <v>2007</v>
@@ -6300,18 +7487,21 @@
         <v>9</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D183" s="1">
         <v>2007</v>
@@ -6320,18 +7510,21 @@
         <v>46</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D184" s="1">
         <v>2007</v>
@@ -6340,15 +7533,18 @@
         <v>9</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>70</v>
@@ -6360,15 +7556,18 @@
         <v>73</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>70</v>
@@ -6380,18 +7579,21 @@
         <v>73</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D187" s="1">
         <v>2008</v>
@@ -6400,18 +7602,21 @@
         <v>6</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D188" s="1">
         <v>2008</v>
@@ -6420,15 +7625,18 @@
         <v>6</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>532</v>
+        <v>865</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>70</v>
@@ -6440,15 +7648,18 @@
         <v>73</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>535</v>
+        <v>864</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>70</v>
@@ -6460,15 +7671,18 @@
         <v>73</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>70</v>
@@ -6480,15 +7694,18 @@
         <v>73</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>70</v>
@@ -6500,15 +7717,18 @@
         <v>74</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>529</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>70</v>
@@ -6520,15 +7740,18 @@
         <v>74</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>546</v>
+        <v>863</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>32</v>
@@ -6540,18 +7763,21 @@
         <v>131</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>549</v>
+        <v>862</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D195" s="1">
         <v>2009</v>
@@ -6560,15 +7786,18 @@
         <v>7</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>70</v>
@@ -6580,18 +7809,21 @@
         <v>74</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D197" s="1">
         <v>2010</v>
@@ -6600,15 +7832,18 @@
         <v>46</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>59</v>
@@ -6620,15 +7855,18 @@
         <v>66</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>560</v>
+        <v>861</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>70</v>
@@ -6640,15 +7878,18 @@
         <v>75</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+      <c r="G199" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>70</v>
@@ -6660,15 +7901,18 @@
         <v>75</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+      <c r="G200" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>70</v>
@@ -6680,18 +7924,21 @@
         <v>75</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D202" s="1">
         <v>2011</v>
@@ -6700,15 +7947,18 @@
         <v>13</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>119</v>
@@ -6720,15 +7970,18 @@
         <v>53</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>70</v>
@@ -6740,15 +7993,18 @@
         <v>77</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>70</v>
@@ -6760,43 +8016,52 @@
         <v>77</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+      <c r="G205" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="D206" s="1">
         <v>2013</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+      <c r="G206" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+      <c r="G207" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D208" s="1">
         <v>2013</v>
@@ -6805,15 +8070,18 @@
         <v>49</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="G208" s="7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>70</v>
@@ -6825,18 +8093,21 @@
         <v>78</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D210" s="1">
         <v>2013</v>
@@ -6845,15 +8116,18 @@
         <v>11</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>59</v>
@@ -6865,15 +8139,18 @@
         <v>69</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+      <c r="G211" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>592</v>
+        <v>859</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>70</v>
@@ -6885,15 +8162,18 @@
         <v>78</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>70</v>
@@ -6905,15 +8185,18 @@
         <v>80</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>70</v>
@@ -6925,15 +8208,18 @@
         <v>80</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>601</v>
+        <v>858</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>70</v>
@@ -6945,15 +8231,18 @@
         <v>80</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>119</v>
@@ -6965,18 +8254,21 @@
         <v>56</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+      <c r="G216" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D217" s="1">
         <v>2016</v>
@@ -6985,15 +8277,18 @@
         <v>17</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>70</v>
@@ -7005,18 +8300,21 @@
         <v>81</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+      <c r="G218" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D219" s="1">
         <v>2016</v>
@@ -7025,15 +8323,18 @@
         <v>52</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>597</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>70</v>
@@ -7045,15 +8346,18 @@
         <v>81</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>59</v>
@@ -7065,15 +8369,18 @@
         <v>74</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>119</v>
@@ -7085,15 +8392,18 @@
         <v>60</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>70</v>
@@ -7105,15 +8415,18 @@
         <v>84</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>609</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>70</v>
@@ -7125,15 +8438,18 @@
         <v>86</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>59</v>
@@ -7145,13 +8461,239 @@
         <v>133</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>633</v>
+        <v>615</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{BF6F5689-69D1-7143-9ADF-5B2C9AEB2677}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G11" r:id="rId9" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G8" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G14" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G22" r:id="rId20" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G26" r:id="rId23" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G29" r:id="rId25" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G31" r:id="rId27" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G32" r:id="rId28" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G33" r:id="rId29" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G38" r:id="rId33" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G39" r:id="rId34" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G40" r:id="rId35" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G42" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G44" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G45" r:id="rId40" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G46" r:id="rId41" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G47" r:id="rId42" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G48" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G49" r:id="rId44" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G53" r:id="rId47" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G54" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G55" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G56" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G57" r:id="rId51" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G58" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G59" r:id="rId53" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G60" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G61" r:id="rId55" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G62" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G63" r:id="rId57" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G64" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G65" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G66" r:id="rId60" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G67" r:id="rId61" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G68" r:id="rId62" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G69" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G70" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G71" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G72" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G73" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G74" r:id="rId68" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G75" r:id="rId69" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G76" r:id="rId70" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G77" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G78" r:id="rId72" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G79" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G80" r:id="rId74" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G81" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G83" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G84" r:id="rId77" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G85" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G86" r:id="rId79" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G87" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G88" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G89" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G90" r:id="rId83" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G91" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G92" r:id="rId85" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G93" r:id="rId86" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G94" r:id="rId87" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G95" r:id="rId88" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G96" r:id="rId89" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G97" r:id="rId90" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G98" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G99" r:id="rId92" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G101" r:id="rId93" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G102" r:id="rId94" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G103" r:id="rId95" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G104" r:id="rId96" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G105" r:id="rId97" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G106" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G107" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G108" r:id="rId100" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="G109" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G110" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="G111" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G112" r:id="rId104" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="G113" r:id="rId105" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G114" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G115" r:id="rId107" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G116" r:id="rId108" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G117" r:id="rId109" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G118" r:id="rId110" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G119" r:id="rId111" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G120" r:id="rId112" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G121" r:id="rId113" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G122" r:id="rId114" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G123" r:id="rId115" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="G124" r:id="rId116" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G125" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="G126" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G127" r:id="rId119" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G128" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G129" r:id="rId121" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G130" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G131" r:id="rId123" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G132" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G133" r:id="rId125" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G134" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G135" r:id="rId127" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G136" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G137" r:id="rId129" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G138" r:id="rId130" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G139" r:id="rId131" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G140" r:id="rId132" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G141" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G142" r:id="rId134" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G143" r:id="rId135" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G144" r:id="rId136" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G145" r:id="rId137" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G146" r:id="rId138" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G148" r:id="rId139" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G149" r:id="rId140" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G150" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G151" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G152" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G153" r:id="rId144" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G154" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G155" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G156" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="G157" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G158" r:id="rId149" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="G159" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G160" r:id="rId151" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G161" r:id="rId152" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G162" r:id="rId153" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="G163" r:id="rId154" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="G164" r:id="rId155" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G165" r:id="rId156" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="G166" r:id="rId157" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="G167" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G168" r:id="rId159" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="G169" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="G170" r:id="rId161" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="G171" r:id="rId162" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G172" r:id="rId163" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="G173" r:id="rId164" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G174" r:id="rId165" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="G175" r:id="rId166" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G177" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="G176" r:id="rId168" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G178" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="G179" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="G180" r:id="rId171" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G181" r:id="rId172" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="G182" r:id="rId173" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G183" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="G184" r:id="rId175" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="G185" r:id="rId176" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="G186" r:id="rId177" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="G188" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="G187" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G189" r:id="rId180" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="G190" r:id="rId181" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="G191" r:id="rId182" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="G192" r:id="rId183" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="G193" r:id="rId184" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="G194" r:id="rId185" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="G195" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="G196" r:id="rId187" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="G197" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="G198" r:id="rId189" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="G199" r:id="rId190" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="G200" r:id="rId191" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="G201" r:id="rId192" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="G202" r:id="rId193" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="G203" r:id="rId194" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="G206" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="G207" r:id="rId196" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="G205" r:id="rId197" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="G204" r:id="rId198" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="G208" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="G209" r:id="rId200" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="G210" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="G211" r:id="rId202" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="G212" r:id="rId203" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="G213" r:id="rId204" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="G214" r:id="rId205" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="G215" r:id="rId206" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="G216" r:id="rId207" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="G217" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="G218" r:id="rId209" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="G219" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="G222" r:id="rId211" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="G223" r:id="rId212" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="G224" r:id="rId213" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="G225" r:id="rId214" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="G100" r:id="rId215" tooltip="Persistent link using digital object identifier" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="G50" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="G221" r:id="rId217" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.tetlet.2019.06.050" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="G220" r:id="rId218" tooltip="DOI URL" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>